--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Jean_François_Turpin/Pierre_Jean_François_Turpin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Jean_François_Turpin/Pierre_Jean_François_Turpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Jean_Fran%C3%A7ois_Turpin</t>
+          <t>Pierre_Jean_François_Turpin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Jean François Turpin (Vire 1775 - Paris 1840) était un botaniste et illustrateur français. Il est considéré comme l’un des plus grands illustrateurs botaniques de l’époque napoléonienne. Bien qu’il ait entamé une formation aux Beaux-Arts, Turpin, en tant qu’artiste, était largement autodidacte.
 En 1794, alors membre de l’armée française et basé à Haïti, Turpin rencontre le botaniste Pierre-Antoine Poiteau (1766-1854) avec il contribuera tout au long de sa carrière. Grâce à Poiteau, il apprend la botanique et réalise de nombreux dessins qui deviendront la base d’études plus approfondies à leur retour en France. Ils ont décrit environ 800 espèces de plantes de la flore haïtienne.
 Turpin est à l’origine des plus belles aquarelles et illustrations existantes de plantes. Il a non seulement apporté son talent à Poiteau, mais aussi à Poiret ou à Humboldt. Il fut membre de l'Académie des Sciences.
-Bien que connu pour son œuvre botanique, il a aussi été zoologiste et a notamment travaillé sur les bryozoaires, dont Cristatella mucedo et ce qu'il prenait pour un œuf de cette espèce, qui est en réalité une forme dormante dite « statoblaste »[1]
+Bien que connu pour son œuvre botanique, il a aussi été zoologiste et a notamment travaillé sur les bryozoaires, dont Cristatella mucedo et ce qu'il prenait pour un œuf de cette espèce, qui est en réalité une forme dormante dite « statoblaste »
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Jean_Fran%C3%A7ois_Turpin</t>
+          <t>Pierre_Jean_François_Turpin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Quelques ouvrages auxquels il a contribué</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Icones selectae plantarum de Benjamin Delessert (1773-1784) et Augustin Pyrame de Candolle (1778-1841).
 Traité des arbres fruitiers d'Henri Louis Duhamel du Monceau (1700-1782)
